--- a/biology/Biochimie/Phosphatase_acide/Phosphatase_acide.xlsx
+++ b/biology/Biochimie/Phosphatase_acide/Phosphatase_acide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Les phosphatases acides sont des hydrolases qui catalysent les réactions du type :
 monoester phosphate + H2O  
@@ -522,10 +534,12 @@
           <t>Applications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le dosage des PAP est utile dans la surveillance des cancers de la prostate et détection des métastases osseuses ou des prostatites. Mais on lui préfère actuellement le dosage de l'antigène prostatique spécifique (PSA) dans ces indications.
-En 2008, des chercheurs américains ont découvert que les PAP ont une action antalgique qui se révèle 8 fois plus puissante que la morphine[2]. En effet, alors que l'action de la morphine s'estompe au bout de cinq heures, celle des PAP permet de garder la douleur sous contrôle pendant trois jours[3].
+En 2008, des chercheurs américains ont découvert que les PAP ont une action antalgique qui se révèle 8 fois plus puissante que la morphine. En effet, alors que l'action de la morphine s'estompe au bout de cinq heures, celle des PAP permet de garder la douleur sous contrôle pendant trois jours.
 De plus, les phosphatases acides prostatiques n'ont pas les effets secondaires indésirables des dérivés opiacés (notamment les vomissements, la confusion mentale, la constipation et la dépression respiratoire).
 </t>
         </is>
